--- a/Bug Reports/Outward LG Bugs Report.xlsx
+++ b/Bug Reports/Outward LG Bugs Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\trade_finance\Bug Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83290226-9D21-4F14-8B34-E8743C17D88A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06FF1A98-32EC-4874-97C4-01EB8D170E75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="120">
   <si>
     <r>
       <t>System Name</t>
@@ -156,9 +156,6 @@
     <t>there is a tolerance field.</t>
   </si>
   <si>
-    <t>no tolerance in Guarantee(to br removed)</t>
-  </si>
-  <si>
     <t>the same as in import LC amendment.</t>
   </si>
   <si>
@@ -177,9 +174,6 @@
     <t>Letter of Guarantee-Amendment [MT767] event-&gt; Mail/Approval Date field -&gt; fill it by previous date.</t>
   </si>
   <si>
-    <t>it is allowed to fill olld date.</t>
-  </si>
-  <si>
     <t>it prevents the user to add previous date.</t>
   </si>
   <si>
@@ -351,14 +345,104 @@
   </si>
   <si>
     <t>for cancel &amp; amend stage the value of amount column should be the canceled amount or amended value.</t>
+  </si>
+  <si>
+    <t>enquiry event.</t>
+  </si>
+  <si>
+    <t>the user usually searchs by the reference of this product only, no need to fill the customer number.</t>
+  </si>
+  <si>
+    <t>you consider the customer number is mandatory field.</t>
+  </si>
+  <si>
+    <t>for each stage(event), when click on view button, bank team expects to give them the details of this event(all the details).</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> currently you view the same small summary for all stages(the results should change with the viewed stage).</t>
+  </si>
+  <si>
+    <t>no tolerance in Guarantee(to be removed)</t>
+  </si>
+  <si>
+    <t>letter of guarantee -&gt; letter 
+of guarantee issuance event -&gt;creation mode-&gt;fill Date of Issue with previous date.</t>
+  </si>
+  <si>
+    <t>the validation message should refers that the entered date is less than the currenct date.</t>
+  </si>
+  <si>
+    <t>the validation message is 'Issue Date Cannot be Greater Than
+ Today Date'</t>
+  </si>
+  <si>
+    <t>letter of guarantee -&gt; letter 
+of guarantee issuance event -&gt;creation mode-&gt; 39D.</t>
+  </si>
+  <si>
+    <t>this field 12&amp;65z.</t>
+  </si>
+  <si>
+    <t>it allows only 11 lines.</t>
+  </si>
+  <si>
+    <t>letter of guarantee -&gt; letter 
+of guarantee issuance event -&gt;creation mode-&gt; 35G.</t>
+  </si>
+  <si>
+    <t>letter of guarantee -&gt; letter 
+of guarantee issuance event -&gt;creation mode-&gt; 71D.</t>
+  </si>
+  <si>
+    <t>this field 6&amp;35z.</t>
+  </si>
+  <si>
+    <t>it does not allow to fill 35 in the line 6.</t>
+  </si>
+  <si>
+    <t>letter of guarantee -&gt; letter 
+of guarantee issuance event -&gt;creation mode-&gt; 78.</t>
+  </si>
+  <si>
+    <t>it does not allow to fill 65 in the line 12.</t>
+  </si>
+  <si>
+    <t>this field 12&amp;65x.</t>
+  </si>
+  <si>
+    <t>this field 6&amp;35x.</t>
+  </si>
+  <si>
+    <t>it allows to fill only 5 lines.</t>
+  </si>
+  <si>
+    <t>letter of guarantee -&gt; letter 
+of guarantee issuance event -&gt;creation mode-&gt; select  Expiry Type=open.</t>
+  </si>
+  <si>
+    <t>no specified expiry date for this case.</t>
+  </si>
+  <si>
+    <t>expiry date is mandatory.</t>
+  </si>
+  <si>
+    <t>letter of guarantee -&gt; letter 
+of guarantee issuance event -&gt;creation mode-&gt; select  Expiry Type=COND.</t>
+  </si>
+  <si>
+    <t>this kind of expiry date depends on either condition or specified date, consequently expiry date should be optional.</t>
+  </si>
+  <si>
+    <t>it is allowed to fill old date.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="165" formatCode="[$-409]dd\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -549,7 +633,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -577,6 +661,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -873,10 +958,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -884,8 +969,8 @@
     <col min="1" max="1" width="20.28515625" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" customWidth="1"/>
     <col min="3" max="3" width="9.42578125" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" customWidth="1"/>
-    <col min="5" max="5" width="37" customWidth="1"/>
+    <col min="4" max="4" width="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="59.85546875" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" style="4" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" style="4" customWidth="1"/>
     <col min="8" max="8" width="12.7109375" style="4" customWidth="1"/>
@@ -896,11 +981,11 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="15"/>
       <c r="E1" s="2"/>
       <c r="F1" s="3"/>
     </row>
@@ -908,11 +993,11 @@
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="18"/>
       <c r="E2" s="6"/>
       <c r="F2" s="7"/>
     </row>
@@ -945,7 +1030,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="60">
+    <row r="4" spans="1:9" ht="45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -982,7 +1067,7 @@
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="E5" t="s">
         <v>31</v>
@@ -1017,7 +1102,7 @@
         <v>45424</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="60">
+    <row r="7" spans="1:9" ht="45">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1066,7 +1151,7 @@
         <v>45424</v>
       </c>
       <c r="I8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="75">
@@ -1097,16 +1182,16 @@
         <v>7</v>
       </c>
       <c r="B10" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="11" t="s">
+      <c r="E10" s="11" t="s">
         <v>35</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>36</v>
       </c>
       <c r="F10" s="4">
         <v>45425</v>
@@ -1120,16 +1205,16 @@
         <v>8</v>
       </c>
       <c r="B11" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E11" t="s">
         <v>37</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" t="s">
-        <v>39</v>
       </c>
       <c r="F11" s="4">
         <v>45427</v>
@@ -1143,16 +1228,16 @@
         <v>9</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>38</v>
+        <v>119</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F12" s="4">
         <v>45427</v>
@@ -1166,16 +1251,16 @@
         <v>10</v>
       </c>
       <c r="B13" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" t="s">
         <v>41</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" t="s">
-        <v>43</v>
       </c>
       <c r="F13" s="4">
         <v>45427</v>
@@ -1189,16 +1274,16 @@
         <v>11</v>
       </c>
       <c r="B14" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>46</v>
-      </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F14" s="4">
         <v>45427</v>
@@ -1207,21 +1292,21 @@
         <v>45427</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="75">
+    <row r="15" spans="1:9" ht="45">
       <c r="A15">
         <v>12</v>
       </c>
       <c r="B15" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>49</v>
-      </c>
       <c r="E15" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F15" s="4">
         <v>45427</v>
@@ -1235,16 +1320,16 @@
         <v>13</v>
       </c>
       <c r="B16" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>52</v>
-      </c>
       <c r="E16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F16" s="4">
         <v>45427</v>
@@ -1258,16 +1343,16 @@
         <v>14</v>
       </c>
       <c r="B17" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" t="s">
         <v>53</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" t="s">
-        <v>55</v>
       </c>
       <c r="F17" s="4">
         <v>45427</v>
@@ -1281,16 +1366,16 @@
         <v>15</v>
       </c>
       <c r="B18" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" t="s">
         <v>56</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E18" t="s">
-        <v>58</v>
       </c>
       <c r="F18" s="4">
         <v>45427</v>
@@ -1304,16 +1389,16 @@
         <v>16</v>
       </c>
       <c r="B19" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>61</v>
-      </c>
       <c r="E19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F19" s="4">
         <v>45427</v>
@@ -1327,16 +1412,16 @@
         <v>17</v>
       </c>
       <c r="B20" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" t="s">
         <v>62</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="E20" t="s">
-        <v>64</v>
       </c>
       <c r="F20" s="4">
         <v>45427</v>
@@ -1350,16 +1435,16 @@
         <v>18</v>
       </c>
       <c r="B21" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="11" t="s">
         <v>65</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>67</v>
       </c>
       <c r="F21" s="4">
         <v>45431</v>
@@ -1373,16 +1458,16 @@
         <v>19</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>14</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F22" s="4">
         <v>45431</v>
@@ -1391,21 +1476,21 @@
         <v>45431</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="60">
+    <row r="23" spans="1:9" ht="45">
       <c r="A23">
         <v>20</v>
       </c>
       <c r="B23" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" t="s">
         <v>70</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="E23" t="s">
-        <v>72</v>
       </c>
       <c r="F23" s="4">
         <v>45431</v>
@@ -1419,16 +1504,16 @@
         <v>21</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>14</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E24" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F24" s="4">
         <v>45431</v>
@@ -1437,24 +1522,24 @@
         <v>45431</v>
       </c>
       <c r="I24" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="75">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="45">
       <c r="A25">
         <v>22</v>
       </c>
       <c r="B25" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C25" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>77</v>
-      </c>
       <c r="E25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F25" s="4">
         <v>45431</v>
@@ -1463,21 +1548,21 @@
         <v>45431</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="75">
+    <row r="26" spans="1:9" ht="45">
       <c r="A26">
         <v>23</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>14</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F26" s="4">
         <v>45432</v>
@@ -1486,24 +1571,24 @@
         <v>45432</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="30">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27">
         <v>24</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>14</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E27" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F27" s="4">
         <v>45432</v>
@@ -1517,16 +1602,16 @@
         <v>25</v>
       </c>
       <c r="B28" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E28" t="s">
         <v>83</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="E28" t="s">
-        <v>85</v>
       </c>
       <c r="F28" s="4">
         <v>45432</v>
@@ -1540,16 +1625,16 @@
         <v>26</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>14</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E29" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F29" s="4">
         <v>45432</v>
@@ -1558,21 +1643,21 @@
         <v>45432</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="60">
+    <row r="30" spans="1:9" ht="45">
       <c r="A30">
         <v>27</v>
       </c>
       <c r="B30" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E30" t="s">
         <v>88</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E30" t="s">
-        <v>90</v>
       </c>
       <c r="F30" s="4">
         <v>45432</v>
@@ -1581,30 +1666,260 @@
         <v>45432</v>
       </c>
       <c r="I30" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="75">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="45">
       <c r="A31">
         <v>28</v>
       </c>
       <c r="B31" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="C31" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>94</v>
-      </c>
       <c r="E31" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F31" s="4">
         <v>45433</v>
       </c>
       <c r="G31" s="4">
         <v>45433</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="45">
+      <c r="A32">
+        <v>22</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="F32" s="13">
+        <v>45439</v>
+      </c>
+      <c r="G32" s="13">
+        <v>45439</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="45">
+      <c r="A33">
+        <v>24</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="F33" s="13">
+        <v>45440</v>
+      </c>
+      <c r="G33" s="13">
+        <v>45440</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="60">
+      <c r="A34">
+        <v>25</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="F34" s="4">
+        <v>45452</v>
+      </c>
+      <c r="G34" s="4">
+        <v>45452</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="45">
+      <c r="A35">
+        <v>26</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="F35" s="4">
+        <v>45452</v>
+      </c>
+      <c r="G35" s="4">
+        <v>45452</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="45">
+      <c r="A36">
+        <v>27</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="F36" s="4">
+        <v>45452</v>
+      </c>
+      <c r="G36" s="4">
+        <v>45452</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="45">
+      <c r="A37">
+        <v>28</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F37" s="4">
+        <v>45452</v>
+      </c>
+      <c r="G37" s="4">
+        <v>45452</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="45">
+      <c r="A38">
+        <v>29</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F38" s="4">
+        <v>45452</v>
+      </c>
+      <c r="G38" s="4">
+        <v>45452</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="45">
+      <c r="A39">
+        <v>30</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F39" s="4">
+        <v>45452</v>
+      </c>
+      <c r="G39" s="4">
+        <v>45452</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="60">
+      <c r="A40">
+        <v>31</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F40" s="4">
+        <v>45454</v>
+      </c>
+      <c r="G40" s="4">
+        <v>45454</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="60">
+      <c r="A41">
+        <v>32</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F41" s="4">
+        <v>45454</v>
+      </c>
+      <c r="G41" s="4">
+        <v>45454</v>
       </c>
     </row>
   </sheetData>
